--- a/biology/Zoologie/Dumitrescoella_decui/Dumitrescoella_decui.xlsx
+++ b/biology/Zoologie/Dumitrescoella_decui/Dumitrescoella_decui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dumitrescoella decui, unique représentant du genre Dumitrescoella,  est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Matanzas, de Mayabeque et de Artemisa[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Matanzas, de Mayabeque et de Artemisa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dumitrescoella decui mesure de 3 à 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dumitrescoella decui mesure de 3 à 4 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Margareta Dumitrescu[2].
-Cette espèce est nommée en l'honneur de Vasile Decu[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Margareta Dumitrescu.
+Cette espèce est nommée en l'honneur de Vasile Decu.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Teruel, 2017 : A new genus of micro-whipscorpions (Schizomida: Hubbardiidae) from western Cuba. Arthropoda Selecta, vol. 26, no 1, p. 41-47.
 Dumitresco, 1977 Autres nouvelles espèces du genre Schizomus des grottes de Cuba. Résultats des expéditions biospeologiques cubano-roumaines à Cuba, vol. 2, p. 147-158.</t>
